--- a/shields/target_stack_shield/partlist_target_stack_shield.xlsx
+++ b/shields/target_stack_shield/partlist_target_stack_shield.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\hive\shields\target_stack_shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE69CB63-129B-4FB9-B465-5B8263435D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFFFDB8-BA92-4413-9F1C-E8C1367A1C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-675" yWindow="2865" windowWidth="2355" windowHeight="9045" xr2:uid="{4D41A2A2-8ED5-4738-9464-E3B21CDC951E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4D41A2A2-8ED5-4738-9464-E3B21CDC951E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>10u</t>
   </si>
@@ -84,12 +84,6 @@
     <t xml:space="preserve">    J3</t>
   </si>
   <si>
-    <t>PCIE-064-02-X-D-RA</t>
-  </si>
-  <si>
-    <t>PCIE-064-02-F-D-RA</t>
-  </si>
-  <si>
     <t xml:space="preserve">    JP1</t>
   </si>
   <si>
@@ -184,6 +178,15 @@
   </si>
   <si>
     <t>Total CHF</t>
+  </si>
+  <si>
+    <t>2199230-3</t>
+  </si>
+  <si>
+    <t>PCIE M.2 Key B 4.2H</t>
+  </si>
+  <si>
+    <t>Magnet Neodym</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -258,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -572,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE50153-71A2-4622-BA68-B62B9D162F18}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,33 +597,33 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -699,11 +705,11 @@
         <v>0.62</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G3:G20" si="0">E5*D5</f>
+        <f t="shared" ref="G5:G20" si="0">E5*D5</f>
         <v>0.64</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H3:H20" si="1">F5*D5</f>
+        <f t="shared" ref="H5:H20" si="1">F5*D5</f>
         <v>0.62</v>
       </c>
     </row>
@@ -768,35 +774,35 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>5.17</v>
+        <v>1.21</v>
       </c>
       <c r="F8" s="4">
-        <v>5.46</v>
+        <v>1.2</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>5.17</v>
+        <v>1.21</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>5.46</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -811,10 +817,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -829,10 +835,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -847,13 +853,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -875,13 +881,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -903,7 +909,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>195</v>
@@ -921,10 +927,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>12</v>
@@ -939,7 +945,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>150</v>
@@ -957,7 +963,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>45</v>
@@ -975,7 +981,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>30</v>
@@ -993,13 +999,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1021,10 +1027,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1044,17 +1050,33 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="7">
-        <f>SUM(G2:G20)</f>
-        <v>23.770000000000003</v>
-      </c>
-      <c r="H22" s="7">
-        <f>SUM(H2:H20)</f>
-        <v>23.91</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="7">
+        <f>SUM(G2:G21)</f>
+        <v>20.810000000000002</v>
+      </c>
+      <c r="H23" s="7">
+        <f>SUM(H2:H21)</f>
+        <v>20.65</v>
       </c>
     </row>
   </sheetData>

--- a/shields/target_stack_shield/partlist_target_stack_shield.xlsx
+++ b/shields/target_stack_shield/partlist_target_stack_shield.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\hive\shields\target_stack_shield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFFFDB8-BA92-4413-9F1C-E8C1367A1C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680ED075-AEFF-47B6-8A1B-37BC8BA99CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4D41A2A2-8ED5-4738-9464-E3B21CDC951E}"/>
+    <workbookView xWindow="36045" yWindow="2235" windowWidth="2355" windowHeight="9045" xr2:uid="{4D41A2A2-8ED5-4738-9464-E3B21CDC951E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,26 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
-  <si>
-    <t>10u</t>
-  </si>
-  <si>
-    <t>LMK212ABJ106MG-T</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>&gt;  C3-C7</t>
   </si>
   <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>&gt;  H1-H4</t>
-  </si>
-  <si>
-    <t>MountingHole_Pad</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -84,24 +69,6 @@
     <t xml:space="preserve">    J3</t>
   </si>
   <si>
-    <t xml:space="preserve">    JP1</t>
-  </si>
-  <si>
-    <t>Address Bit 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    JP2</t>
-  </si>
-  <si>
-    <t>Address Bit 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    JP3</t>
-  </si>
-  <si>
-    <t>Address Bit 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">    LED1</t>
   </si>
   <si>
@@ -126,18 +93,12 @@
     <t>&gt;  R2-R4, R8-R16</t>
   </si>
   <si>
-    <t>100k</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R5</t>
   </si>
   <si>
     <t xml:space="preserve">    R6</t>
   </si>
   <si>
-    <t xml:space="preserve">    R7</t>
-  </si>
-  <si>
     <t>&gt;  U1-U4</t>
   </si>
   <si>
@@ -186,7 +147,25 @@
     <t>PCIE M.2 Key B 4.2H</t>
   </si>
   <si>
-    <t>Magnet Neodym</t>
+    <t>Capacitor 0805 10uF</t>
+  </si>
+  <si>
+    <t>Capacitor 0603 100nF</t>
+  </si>
+  <si>
+    <t>Resistor 0603 560Ohm</t>
+  </si>
+  <si>
+    <t>Resistor 0603 100kOhm</t>
+  </si>
+  <si>
+    <t>Resistor 0603 6.8kOhm</t>
+  </si>
+  <si>
+    <t>Resistor 0603 10kOhm</t>
+  </si>
+  <si>
+    <t>CL21A106KPFNNNF</t>
   </si>
 </sst>
 </file>
@@ -578,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE50153-71A2-4622-BA68-B62B9D162F18}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,39 +576,39 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -651,432 +630,326 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G15" si="0">E4*D4</f>
+        <v>0.64</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H15" si="1">F4*D4</f>
+        <v>0.62</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>0.64</v>
+        <v>2.77</v>
       </c>
       <c r="F5" s="4">
-        <v>0.62</v>
+        <v>2.74</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G20" si="0">E5*D5</f>
-        <v>0.64</v>
+        <f t="shared" si="0"/>
+        <v>2.77</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H20" si="1">F5*D5</f>
-        <v>0.62</v>
+        <f t="shared" si="1"/>
+        <v>2.74</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>2.77</v>
+        <v>1.82</v>
       </c>
       <c r="F6" s="4">
-        <v>2.74</v>
+        <v>1.81</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>2.77</v>
+        <v>1.82</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>2.74</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>1.82</v>
+        <v>1.21</v>
       </c>
       <c r="F7" s="4">
-        <v>1.81</v>
+        <v>1.2</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>1.82</v>
+        <v>1.21</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>1.81</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>1.21</v>
+        <v>0.13</v>
       </c>
       <c r="F8" s="4">
-        <v>1.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>1.21</v>
+        <v>0.13</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4"/>
+      <c r="E9" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
+      <c r="E10" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.13</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.38</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.38</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>0.38</v>
-      </c>
+      <c r="E13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
-        <v>195</v>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2.64</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>10.68</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>10.56</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>150</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>45</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.67</v>
-      </c>
-      <c r="F19" s="4">
-        <v>2.64</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>10.68</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>10.56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>1.92</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F15" s="4">
         <v>1.9</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>1.92</v>
       </c>
-      <c r="H20">
+      <c r="H15">
         <f t="shared" si="1"/>
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" s="7">
-        <f>SUM(G2:G21)</f>
-        <v>20.810000000000002</v>
-      </c>
-      <c r="H23" s="7">
-        <f>SUM(H2:H21)</f>
-        <v>20.65</v>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="7">
+        <f>SUM(G2:G15)</f>
+        <v>19.810000000000002</v>
+      </c>
+      <c r="H17" s="7">
+        <f>SUM(H2:H15)</f>
+        <v>19.649999999999999</v>
       </c>
     </row>
   </sheetData>
